--- a/Data/Vechile Inspection.xlsx
+++ b/Data/Vechile Inspection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="Vechile_Inspection" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Store</t>
   </si>
@@ -36,15 +37,6 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>Spartanburg #103</t>
-  </si>
-  <si>
-    <t>Bhargav</t>
-  </si>
-  <si>
-    <t>Mogali</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
@@ -66,9 +58,6 @@
     <t>Audi</t>
   </si>
   <si>
-    <t>K8</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -111,9 +100,6 @@
     <t>GPSID Number Image</t>
   </si>
   <si>
-    <t>Visakhapatnam</t>
-  </si>
-  <si>
     <t>\Images\DriverSide.png</t>
   </si>
   <si>
@@ -139,6 +125,36 @@
   </si>
   <si>
     <t>\Images\GPS_ID.png</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Test_Instore</t>
+  </si>
+  <si>
+    <t>Gaffney #101</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Georgie</t>
+  </si>
+  <si>
+    <t>Online_Store Number</t>
+  </si>
+  <si>
+    <t>GA105</t>
+  </si>
+  <si>
+    <t>Online_PhnNumber</t>
+  </si>
+  <si>
+    <t>TitleNumber</t>
   </si>
 </sst>
 </file>
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,9 +539,13 @@
     <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.42578125" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,63 +565,72 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>433</v>
@@ -610,64 +639,90 @@
         <v>5449</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>2013</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>78</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="W2" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>7410852963</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>369852</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"Gaffney #101,Spartanburg #103,Fort Mill #104"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Logan,Jardan,Kevin,Eli,Cooper,Brooke,Naomi,Max,Riley,Reya,Ciper"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Reese,Maxwell,Victor,Devin,Kate"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+      <formula1>"Georgie,South Carolina"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+      <formula1>"GA105,SC106"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" display="\\Images\\DriverSide.png"/>
   </hyperlinks>

--- a/Data/Vechile Inspection.xlsx
+++ b/Data/Vechile Inspection.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -505,7 +506,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
